--- a/Input/Peliculas que he visto - Letterboxd.xlsx
+++ b/Input/Peliculas que he visto - Letterboxd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bibliotecas uc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bibliotecas uc\Downloads\Analisis-de-mi-Letterboxd\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{135B354C-15E4-4FAD-B167-4BD261932825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18B8061-C004-49EC-8AE4-1E1C2CA3A1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="watched" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="1038">
   <si>
     <t>Date</t>
   </si>
@@ -2941,12 +2941,6 @@
   </si>
   <si>
     <t>https://boxd.it/HkvS</t>
-  </si>
-  <si>
-    <t>Kill Bill: The Origin of O-Ren</t>
-  </si>
-  <si>
-    <t>https://boxd.it/8r9a</t>
   </si>
   <si>
     <t>The Making of 'Kill Bill Vol. 2'</t>
@@ -3150,7 +3144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3986,11 +3980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E521"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="B486" sqref="B486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10818,13 +10812,13 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
-        <v>45263</v>
+        <v>45265</v>
       </c>
       <c r="B488" t="s">
         <v>972</v>
       </c>
       <c r="C488">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D488" t="s">
         <v>973</v>
@@ -10832,13 +10826,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
-        <v>45265</v>
+        <v>45267</v>
       </c>
       <c r="B489" t="s">
         <v>974</v>
       </c>
       <c r="C489">
-        <v>2004</v>
+        <v>2024</v>
       </c>
       <c r="D489" t="s">
         <v>975</v>
@@ -10846,13 +10840,13 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
-        <v>45267</v>
+        <v>45284</v>
       </c>
       <c r="B490" t="s">
         <v>976</v>
       </c>
       <c r="C490">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D490" t="s">
         <v>977</v>
@@ -10860,13 +10854,13 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
-        <v>45284</v>
+        <v>45314</v>
       </c>
       <c r="B491" t="s">
         <v>978</v>
       </c>
       <c r="C491">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="D491" t="s">
         <v>979</v>
@@ -10874,13 +10868,13 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B492" t="s">
         <v>980</v>
       </c>
       <c r="C492">
-        <v>2008</v>
+        <v>1952</v>
       </c>
       <c r="D492" t="s">
         <v>981</v>
@@ -10888,13 +10882,13 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B493" t="s">
         <v>982</v>
       </c>
       <c r="C493">
-        <v>1952</v>
+        <v>2016</v>
       </c>
       <c r="D493" t="s">
         <v>983</v>
@@ -10902,13 +10896,13 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
-        <v>45317</v>
+        <v>45321</v>
       </c>
       <c r="B494" t="s">
         <v>984</v>
       </c>
       <c r="C494">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D494" t="s">
         <v>985</v>
@@ -10916,13 +10910,13 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B495" t="s">
         <v>986</v>
       </c>
       <c r="C495">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="D495" t="s">
         <v>987</v>
@@ -10930,13 +10924,13 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="B496" t="s">
         <v>988</v>
       </c>
       <c r="C496">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D496" t="s">
         <v>989</v>
@@ -10950,7 +10944,7 @@
         <v>990</v>
       </c>
       <c r="C497">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D497" t="s">
         <v>991</v>
@@ -10964,7 +10958,7 @@
         <v>992</v>
       </c>
       <c r="C498">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D498" t="s">
         <v>993</v>
@@ -10978,7 +10972,7 @@
         <v>994</v>
       </c>
       <c r="C499">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D499" t="s">
         <v>995</v>
@@ -10986,7 +10980,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
-        <v>45325</v>
+        <v>45327</v>
       </c>
       <c r="B500" t="s">
         <v>996</v>
@@ -11000,13 +10994,13 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B501" t="s">
         <v>998</v>
       </c>
       <c r="C501">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D501" t="s">
         <v>999</v>
@@ -11014,13 +11008,13 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B502" t="s">
         <v>1000</v>
       </c>
       <c r="C502">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D502" t="s">
         <v>1001</v>
@@ -11028,13 +11022,13 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B503" t="s">
         <v>1002</v>
       </c>
       <c r="C503">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D503" t="s">
         <v>1003</v>
@@ -11042,13 +11036,13 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B504" t="s">
         <v>1004</v>
       </c>
       <c r="C504">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D504" t="s">
         <v>1005</v>
@@ -11056,7 +11050,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B505" t="s">
         <v>1006</v>
@@ -11070,13 +11064,13 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
-        <v>45337</v>
+        <v>45349</v>
       </c>
       <c r="B506" t="s">
         <v>1008</v>
       </c>
       <c r="C506">
-        <v>2020</v>
+        <v>1999</v>
       </c>
       <c r="D506" t="s">
         <v>1009</v>
@@ -11084,13 +11078,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
-        <v>45349</v>
+        <v>45371</v>
       </c>
       <c r="B507" t="s">
         <v>1010</v>
       </c>
       <c r="C507">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="D507" t="s">
         <v>1011</v>
@@ -11104,7 +11098,7 @@
         <v>1012</v>
       </c>
       <c r="C508">
-        <v>2017</v>
+        <v>1993</v>
       </c>
       <c r="D508" t="s">
         <v>1013</v>
@@ -11118,7 +11112,7 @@
         <v>1014</v>
       </c>
       <c r="C509">
-        <v>1993</v>
+        <v>2016</v>
       </c>
       <c r="D509" t="s">
         <v>1015</v>
@@ -11126,13 +11120,13 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B510" t="s">
         <v>1016</v>
       </c>
       <c r="C510">
-        <v>2016</v>
+        <v>1996</v>
       </c>
       <c r="D510" t="s">
         <v>1017</v>
@@ -11146,7 +11140,7 @@
         <v>1018</v>
       </c>
       <c r="C511">
-        <v>1996</v>
+        <v>2016</v>
       </c>
       <c r="D511" t="s">
         <v>1019</v>
@@ -11160,7 +11154,7 @@
         <v>1020</v>
       </c>
       <c r="C512">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D512" t="s">
         <v>1021</v>
@@ -11168,13 +11162,13 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
-        <v>45372</v>
+        <v>45446</v>
       </c>
       <c r="B513" t="s">
         <v>1022</v>
       </c>
       <c r="C513">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="D513" t="s">
         <v>1023</v>
@@ -11182,13 +11176,13 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
-        <v>45446</v>
+        <v>45535</v>
       </c>
       <c r="B514" t="s">
         <v>1024</v>
       </c>
       <c r="C514">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="D514" t="s">
         <v>1025</v>
@@ -11196,13 +11190,13 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
-        <v>45535</v>
+        <v>45657</v>
       </c>
       <c r="B515" t="s">
         <v>1026</v>
       </c>
       <c r="C515">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="D515" t="s">
         <v>1027</v>
@@ -11210,13 +11204,13 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
-        <v>45657</v>
+        <v>45660</v>
       </c>
       <c r="B516" t="s">
         <v>1028</v>
       </c>
       <c r="C516">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="D516" t="s">
         <v>1029</v>
@@ -11224,13 +11218,13 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
-        <v>45660</v>
+        <v>45744</v>
       </c>
       <c r="B517" t="s">
         <v>1030</v>
       </c>
       <c r="C517">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="D517" t="s">
         <v>1031</v>
@@ -11238,13 +11232,13 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
-        <v>45744</v>
+        <v>45769</v>
       </c>
       <c r="B518" t="s">
         <v>1032</v>
       </c>
       <c r="C518">
-        <v>1989</v>
+        <v>1976</v>
       </c>
       <c r="D518" t="s">
         <v>1033</v>
@@ -11252,13 +11246,13 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
-        <v>45769</v>
+        <v>45795</v>
       </c>
       <c r="B519" t="s">
         <v>1034</v>
       </c>
       <c r="C519">
-        <v>1976</v>
+        <v>2008</v>
       </c>
       <c r="D519" t="s">
         <v>1035</v>
@@ -11266,30 +11260,16 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
-        <v>45795</v>
+        <v>45843</v>
       </c>
       <c r="B520" t="s">
         <v>1036</v>
       </c>
       <c r="C520">
-        <v>2008</v>
+        <v>2024</v>
       </c>
       <c r="D520" t="s">
         <v>1037</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A521" s="1">
-        <v>45843</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C521">
-        <v>2024</v>
-      </c>
-      <c r="D521" t="s">
-        <v>1039</v>
       </c>
     </row>
   </sheetData>
